--- a/PPP-PPK Processing EMLID/Example_output.xlsx
+++ b/PPP-PPK Processing EMLID/Example_output.xlsx
@@ -179,28 +179,28 @@
     <t>Ellipsoid heigh corrected for Rover antenna height (m)</t>
   </si>
   <si>
-    <t>Postprocessed Ellipsoid height ±1sigma (m)</t>
-  </si>
-  <si>
-    <t>Postprocessed Ellipsoid height including base uncertainty ±1sigma (m)</t>
+    <t>Postprocessed Ellipsoid height ±2sigma (m)</t>
+  </si>
+  <si>
+    <t>Postprocessed Ellipsoid height including base uncertainty ±2sigma (m)</t>
   </si>
   <si>
     <t>Average postprocessed latitude (degrees)</t>
   </si>
   <si>
-    <t>Postprocessed latitude ±1sigma (degrees)</t>
-  </si>
-  <si>
-    <t>Postprocessed Latitude including base uncertainty ±1sigma (m)</t>
+    <t>Postprocessed latitude ±2sigma (degrees)</t>
+  </si>
+  <si>
+    <t>Postprocessed Latitude including base uncertainty ±2sigma (m)</t>
   </si>
   <si>
     <t>Average postprocessed longitude (degrees)</t>
   </si>
   <si>
-    <t>Postprocessed Longitude ±1sigma (degrees)</t>
-  </si>
-  <si>
-    <t>Postprocessed Longitude including base uncertainty ±1sigma (m)</t>
+    <t>Postprocessed Longitude ±2sigma (degrees)</t>
+  </si>
+  <si>
+    <t>Postprocessed Longitude including base uncertainty ±2sigma (m)</t>
   </si>
   <si>
     <t>Number of float points processed</t>
@@ -2286,28 +2286,28 @@
         <v>48.3673845257903</v>
       </c>
       <c r="J2" s="1">
-        <v>0.001296653442424099</v>
+        <v>0.002593306884848199</v>
       </c>
       <c r="K2" s="1">
-        <v>0.1090077121590475</v>
+        <v>0.1090308453631311</v>
       </c>
       <c r="L2" s="1">
         <v>-44.79934605780868</v>
       </c>
       <c r="M2" s="1">
-        <v>1.438319448445105E-07</v>
+        <v>2.876638896890209E-07</v>
       </c>
       <c r="N2" s="1">
-        <v>0.05650000000018308</v>
+        <v>0.05650000000073231</v>
       </c>
       <c r="O2" s="1">
         <v>-65.72829642586186</v>
       </c>
       <c r="P2" s="1">
-        <v>8.720869174197128E-08</v>
+        <v>1.744173834839426E-07</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.1060000000000359</v>
+        <v>0.1060000000001435</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2339,28 +2339,28 @@
         <v>23.40556268656718</v>
       </c>
       <c r="J3" s="1">
-        <v>0.009268852008380483</v>
+        <v>0.01853770401676097</v>
       </c>
       <c r="K3" s="1">
-        <v>0.1093933801358805</v>
+        <v>0.1105651232089624</v>
       </c>
       <c r="L3" s="1">
         <v>-44.80627031502557</v>
       </c>
       <c r="M3" s="1">
-        <v>2.022939264688701E-07</v>
+        <v>4.045878529377402E-07</v>
       </c>
       <c r="N3" s="1">
-        <v>0.05650000000036215</v>
+        <v>0.0565000000014486</v>
       </c>
       <c r="O3" s="1">
         <v>-65.73385766331559</v>
       </c>
       <c r="P3" s="1">
-        <v>3.057767444804513E-07</v>
+        <v>6.115534889609026E-07</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.106000000000441</v>
+        <v>0.1060000000017641</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2392,28 +2392,28 @@
         <v>23.26899950083195</v>
       </c>
       <c r="J4" s="1">
-        <v>0.01016534553030128</v>
+        <v>0.02033069106060256</v>
       </c>
       <c r="K4" s="1">
-        <v>0.1094729841090961</v>
+        <v>0.1108798313445762</v>
       </c>
       <c r="L4" s="1">
         <v>-44.80638368065057</v>
       </c>
       <c r="M4" s="1">
-        <v>2.875202155341498E-07</v>
+        <v>5.750404310682997E-07</v>
       </c>
       <c r="N4" s="1">
-        <v>0.05650000000073158</v>
+        <v>0.0565000000029263</v>
       </c>
       <c r="O4" s="1">
         <v>-65.73387262377705</v>
       </c>
       <c r="P4" s="1">
-        <v>3.579057562322864E-07</v>
+        <v>7.158115124645727E-07</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.1060000000006042</v>
+        <v>0.1060000000024169</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2445,28 +2445,28 @@
         <v>23.67887021630614</v>
       </c>
       <c r="J5" s="1">
-        <v>0.01292526962142248</v>
+        <v>0.02585053924284495</v>
       </c>
       <c r="K5" s="1">
-        <v>0.1097636670068309</v>
+        <v>0.112023436740469</v>
       </c>
       <c r="L5" s="1">
         <v>-44.8064720116406</v>
       </c>
       <c r="M5" s="1">
-        <v>1.953025277580606E-07</v>
+        <v>3.906050555161212E-07</v>
       </c>
       <c r="N5" s="1">
-        <v>0.05650000000033755</v>
+        <v>0.0565000000013502</v>
       </c>
       <c r="O5" s="1">
         <v>-65.73388795969061</v>
       </c>
       <c r="P5" s="1">
-        <v>1.896827370229386E-07</v>
+        <v>3.793654740458773E-07</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.1060000000001697</v>
+        <v>0.1060000000006789</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2498,28 +2498,28 @@
         <v>23.13848835274541</v>
       </c>
       <c r="J6" s="1">
-        <v>0.01075543106754428</v>
+        <v>0.02151086213508856</v>
       </c>
       <c r="K6" s="1">
-        <v>0.1095293535881989</v>
+        <v>0.1111022825588871</v>
       </c>
       <c r="L6" s="1">
         <v>-44.80644191571209</v>
       </c>
       <c r="M6" s="1">
-        <v>2.682465942747667E-07</v>
+        <v>5.364931885495334E-07</v>
       </c>
       <c r="N6" s="1">
-        <v>0.05650000000063678</v>
+        <v>0.05650000000254712</v>
       </c>
       <c r="O6" s="1">
         <v>-65.73388046250415</v>
       </c>
       <c r="P6" s="1">
-        <v>1.432397423613178E-07</v>
+        <v>2.864794847226355E-07</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.1060000000000968</v>
+        <v>0.1060000000003871</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2551,28 +2551,28 @@
         <v>59.13916817197132</v>
       </c>
       <c r="J7" s="1">
-        <v>0.00375648108488349</v>
+        <v>0.007512962169766981</v>
       </c>
       <c r="K7" s="1">
-        <v>0.1090647108378374</v>
+        <v>0.1092586133930151</v>
       </c>
       <c r="L7" s="1">
         <v>-44.79671438134929</v>
       </c>
       <c r="M7" s="1">
-        <v>1.455909763107747E-08</v>
+        <v>2.911819526215494E-08</v>
       </c>
       <c r="N7" s="1">
-        <v>0.05650000000000188</v>
+        <v>0.0565000000000075</v>
       </c>
       <c r="O7" s="1">
         <v>-65.72141541858691</v>
       </c>
       <c r="P7" s="1">
-        <v>1.371327046674693E-08</v>
+        <v>2.742654093349387E-08</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.1060000000000009</v>
+        <v>0.1060000000000035</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2604,28 +2604,28 @@
         <v>23.01937979797981</v>
       </c>
       <c r="J8" s="1">
-        <v>0.002529216213108105</v>
+        <v>0.005058432426216211</v>
       </c>
       <c r="K8" s="1">
-        <v>0.1090293397882086</v>
+        <v>0.1091173118190262</v>
       </c>
       <c r="L8" s="1">
         <v>-44.8093626420101</v>
       </c>
       <c r="M8" s="1">
-        <v>2.434718940992352E-08</v>
+        <v>4.869437881984705E-08</v>
       </c>
       <c r="N8" s="1">
-        <v>0.05650000000000525</v>
+        <v>0.05650000000002098</v>
       </c>
       <c r="O8" s="1">
         <v>-65.73456211186868</v>
       </c>
       <c r="P8" s="1">
-        <v>2.265797893172205E-07</v>
+        <v>4.531595786344411E-07</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.1060000000002422</v>
+        <v>0.1060000000009686</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2657,28 +2657,28 @@
         <v>28.4105755407654</v>
       </c>
       <c r="J9" s="1">
-        <v>0.002988720587266754</v>
+        <v>0.005977441174533508</v>
       </c>
       <c r="K9" s="1">
-        <v>0.1090409668461755</v>
+        <v>0.1091637751408177</v>
       </c>
       <c r="L9" s="1">
         <v>-44.84218957491848</v>
       </c>
       <c r="M9" s="1">
-        <v>9.619039280717883E-08</v>
+        <v>1.923807856143577E-07</v>
       </c>
       <c r="N9" s="1">
-        <v>0.05650000000008188</v>
+        <v>0.05650000000032752</v>
       </c>
       <c r="O9" s="1">
         <v>-65.73857357424289</v>
       </c>
       <c r="P9" s="1">
-        <v>1.467565586972312E-07</v>
+        <v>2.935131173944625E-07</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.1060000000001016</v>
+        <v>0.1060000000004064</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2710,28 +2710,28 @@
         <v>30.06346206322793</v>
       </c>
       <c r="J10" s="1">
-        <v>0.007049056088299799</v>
+        <v>0.0140981121765996</v>
       </c>
       <c r="K10" s="1">
-        <v>0.1092276942525841</v>
+        <v>0.1099079467870453</v>
       </c>
       <c r="L10" s="1">
         <v>-44.84218398566722</v>
       </c>
       <c r="M10" s="1">
-        <v>1.235081879443702E-07</v>
+        <v>2.470163758887404E-07</v>
       </c>
       <c r="N10" s="1">
-        <v>0.056500000000135</v>
+        <v>0.05650000000053998</v>
       </c>
       <c r="O10" s="1">
         <v>-65.73869967156411</v>
       </c>
       <c r="P10" s="1">
-        <v>2.293165488786601E-07</v>
+        <v>4.586330977573202E-07</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.106000000000248</v>
+        <v>0.1060000000009922</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2763,28 +2763,28 @@
         <v>21.49824326123128</v>
       </c>
       <c r="J11" s="1">
-        <v>0.003959477071530807</v>
+        <v>0.007918954143061614</v>
       </c>
       <c r="K11" s="1">
-        <v>0.109071891240044</v>
+        <v>0.1092872812120418</v>
       </c>
       <c r="L11" s="1">
         <v>-44.82702189886693</v>
       </c>
       <c r="M11" s="1">
-        <v>2.20090138095823E-07</v>
+        <v>4.40180276191646E-07</v>
       </c>
       <c r="N11" s="1">
-        <v>0.05650000000042867</v>
+        <v>0.05650000000171468</v>
       </c>
       <c r="O11" s="1">
         <v>-65.72933653403824</v>
       </c>
       <c r="P11" s="1">
-        <v>2.548279294200761E-07</v>
+        <v>5.096558588401521E-07</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.1060000000003063</v>
+        <v>0.1060000000012252</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2816,28 +2816,28 @@
         <v>23.12328119800331</v>
       </c>
       <c r="J12" s="1">
-        <v>0.002319920091094219</v>
+        <v>0.004639840182188438</v>
       </c>
       <c r="K12" s="1">
-        <v>0.1090246854121995</v>
+        <v>0.1090987081358723</v>
       </c>
       <c r="L12" s="1">
         <v>-44.82650596642099</v>
       </c>
       <c r="M12" s="1">
-        <v>1.725936584291302E-07</v>
+        <v>3.451873168582604E-07</v>
       </c>
       <c r="N12" s="1">
-        <v>0.05650000000026362</v>
+        <v>0.05650000000105446</v>
       </c>
       <c r="O12" s="1">
         <v>-65.72823503459897</v>
       </c>
       <c r="P12" s="1">
-        <v>1.621563973219417E-07</v>
+        <v>3.243127946438834E-07</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.106000000000124</v>
+        <v>0.1060000000004961</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2869,28 +2869,28 @@
         <v>12.99764492512481</v>
       </c>
       <c r="J13" s="1">
-        <v>0.002277706090796379</v>
+        <v>0.004555412181592757</v>
       </c>
       <c r="K13" s="1">
-        <v>0.1090237953156835</v>
+        <v>0.1090951501220114</v>
       </c>
       <c r="L13" s="1">
         <v>-44.82801868262231</v>
       </c>
       <c r="M13" s="1">
-        <v>1.890492848999889E-07</v>
+        <v>3.780985697999778E-07</v>
       </c>
       <c r="N13" s="1">
-        <v>0.05650000000031628</v>
+        <v>0.05650000000126512</v>
       </c>
       <c r="O13" s="1">
         <v>-65.72633858996173</v>
       </c>
       <c r="P13" s="1">
-        <v>1.412186610234232E-07</v>
+        <v>2.824373220468465E-07</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.1060000000000941</v>
+        <v>0.1060000000003763</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2922,28 +2922,28 @@
         <v>15.75869284525789</v>
       </c>
       <c r="J14" s="1">
-        <v>0.001547793717203657</v>
+        <v>0.003095587434407314</v>
       </c>
       <c r="K14" s="1">
-        <v>0.1090109887368747</v>
+        <v>0.1090439483032601</v>
       </c>
       <c r="L14" s="1">
         <v>-44.80729211810152</v>
       </c>
       <c r="M14" s="1">
-        <v>8.933783066072672E-08</v>
+        <v>1.786756613214534E-07</v>
       </c>
       <c r="N14" s="1">
-        <v>0.05650000000007063</v>
+        <v>0.05650000000028253</v>
       </c>
       <c r="O14" s="1">
         <v>-65.72703195540927</v>
       </c>
       <c r="P14" s="1">
-        <v>1.595832550920758E-07</v>
+        <v>3.191665101841517E-07</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.1060000000001201</v>
+        <v>0.1060000000004805</v>
       </c>
     </row>
   </sheetData>
@@ -3044,28 +3044,28 @@
         <v>24.38687810218978</v>
       </c>
       <c r="J2" s="1">
-        <v>0.006402133322394728</v>
+        <v>0.01280426664478946</v>
       </c>
       <c r="K2" s="1">
-        <v>0.1091878533128924</v>
+        <v>0.1097494840275382</v>
       </c>
       <c r="L2" s="1">
         <v>-44.80627750032848</v>
       </c>
       <c r="M2" s="1">
-        <v>1.604285667923635E-07</v>
+        <v>3.208571335847271E-07</v>
       </c>
       <c r="N2" s="1">
-        <v>0.05650000000022776</v>
+        <v>0.05650000000091106</v>
       </c>
       <c r="O2" s="1">
         <v>-65.73383128021166</v>
       </c>
       <c r="P2" s="1">
-        <v>3.41547978371876E-07</v>
+        <v>6.83095956743752E-07</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.1060000000005503</v>
+        <v>0.106000000002201</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3097,28 +3097,28 @@
         <v>24.10127304492514</v>
       </c>
       <c r="J3" s="1">
-        <v>0.02383736434423159</v>
+        <v>0.04767472868846319</v>
       </c>
       <c r="K3" s="1">
-        <v>0.1115760724298881</v>
+        <v>0.1189700792448193</v>
       </c>
       <c r="L3" s="1">
         <v>-44.80651832159065</v>
       </c>
       <c r="M3" s="1">
-        <v>1.900692386538317E-07</v>
+        <v>3.801384773076635E-07</v>
       </c>
       <c r="N3" s="1">
-        <v>0.0565000000003197</v>
+        <v>0.05650000000127881</v>
       </c>
       <c r="O3" s="1">
         <v>-65.73388033262565</v>
       </c>
       <c r="P3" s="1">
-        <v>2.481849468148895E-07</v>
+        <v>4.963698936297789E-07</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.1060000000002905</v>
+        <v>0.1060000000011622</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3150,28 +3150,28 @@
         <v>22.83382429284525</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0274076821750296</v>
+        <v>0.05481536435005921</v>
       </c>
       <c r="K4" s="1">
-        <v>0.1123929759469311</v>
+        <v>0.1220070660610677</v>
       </c>
       <c r="L4" s="1">
         <v>-44.80655097846586</v>
       </c>
       <c r="M4" s="1">
-        <v>1.532192087618124E-07</v>
+        <v>3.064384175236247E-07</v>
       </c>
       <c r="N4" s="1">
-        <v>0.05650000000020775</v>
+        <v>0.05650000000083102</v>
       </c>
       <c r="O4" s="1">
         <v>-65.73395060349753</v>
       </c>
       <c r="P4" s="1">
-        <v>2.572687580081154E-07</v>
+        <v>5.145375160162309E-07</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.1060000000003122</v>
+        <v>0.1060000000012488</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3203,28 +3203,28 @@
         <v>22.48785657237939</v>
       </c>
       <c r="J5" s="1">
-        <v>0.03750340643504053</v>
+        <v>0.07500681287008105</v>
       </c>
       <c r="K5" s="1">
-        <v>0.1152714426657003</v>
+        <v>0.1323141034694615</v>
       </c>
       <c r="L5" s="1">
         <v>-44.80655425744256</v>
       </c>
       <c r="M5" s="1">
-        <v>1.749908486922838E-07</v>
+        <v>3.499816973845676E-07</v>
       </c>
       <c r="N5" s="1">
-        <v>0.05650000000027099</v>
+        <v>0.05650000000108396</v>
       </c>
       <c r="O5" s="1">
         <v>-65.73396080081538</v>
       </c>
       <c r="P5" s="1">
-        <v>3.422690426683375E-07</v>
+        <v>6.84538085336675E-07</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.1060000000005526</v>
+        <v>0.1060000000022103</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3256,28 +3256,28 @@
         <v>26.91599068219636</v>
       </c>
       <c r="J6" s="1">
-        <v>0.004452304238687229</v>
+        <v>0.008904608477374457</v>
       </c>
       <c r="K6" s="1">
-        <v>0.1090908933551918</v>
+        <v>0.1093631201645936</v>
       </c>
       <c r="L6" s="1">
         <v>-44.80654738839436</v>
       </c>
       <c r="M6" s="1">
-        <v>1.00272242318485E-07</v>
+        <v>2.005444846369699E-07</v>
       </c>
       <c r="N6" s="1">
-        <v>0.05650000000008898</v>
+        <v>0.05650000000035592</v>
       </c>
       <c r="O6" s="1">
         <v>-65.73385747636948</v>
       </c>
       <c r="P6" s="1">
-        <v>3.115339520553079E-07</v>
+        <v>6.230679041106159E-07</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.1060000000004578</v>
+        <v>0.1060000000018312</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3309,28 +3309,28 @@
         <v>23.06411334661357</v>
       </c>
       <c r="J7" s="1">
-        <v>0.03922778712329057</v>
+        <v>0.07845557424658114</v>
       </c>
       <c r="K7" s="1">
-        <v>0.1158439436595207</v>
+        <v>0.1342992074822514</v>
       </c>
       <c r="L7" s="1">
         <v>-44.80936191109163</v>
       </c>
       <c r="M7" s="1">
-        <v>3.686342811217239E-07</v>
+        <v>7.372685622434478E-07</v>
       </c>
       <c r="N7" s="1">
-        <v>0.05650000000120258</v>
+        <v>0.05650000000481031</v>
       </c>
       <c r="O7" s="1">
         <v>-65.73456238675297</v>
       </c>
       <c r="P7" s="1">
-        <v>2.542517154478245E-07</v>
+        <v>5.085034308956491E-07</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.1060000000003049</v>
+        <v>0.1060000000012197</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3362,28 +3362,28 @@
         <v>17.68321813643929</v>
       </c>
       <c r="J8" s="1">
-        <v>0.01255026110703236</v>
+        <v>0.02510052221406472</v>
       </c>
       <c r="K8" s="1">
-        <v>0.109720139691192</v>
+        <v>0.1118527434416284</v>
       </c>
       <c r="L8" s="1">
         <v>-44.82629123766882</v>
       </c>
       <c r="M8" s="1">
-        <v>2.340061718652141E-07</v>
+        <v>4.680123437304282E-07</v>
       </c>
       <c r="N8" s="1">
-        <v>0.05650000000048459</v>
+        <v>0.05650000000193837</v>
       </c>
       <c r="O8" s="1">
         <v>-65.727667327183</v>
       </c>
       <c r="P8" s="1">
-        <v>2.342953404859123E-07</v>
+        <v>4.685906809718245E-07</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.1060000000002589</v>
+        <v>0.1060000000010357</v>
       </c>
     </row>
   </sheetData>
@@ -3484,28 +3484,28 @@
         <v>20.79721930116475</v>
       </c>
       <c r="J2" s="1">
-        <v>0.3527154934129076</v>
+        <v>0.7054309868258153</v>
       </c>
       <c r="K2" s="1">
-        <v>0.3691736979979897</v>
+        <v>0.7138024076549782</v>
       </c>
       <c r="L2" s="1">
         <v>-44.80934734869713</v>
       </c>
       <c r="M2" s="1">
-        <v>3.404632766452289E-06</v>
+        <v>6.809265532904579E-06</v>
       </c>
       <c r="N2" s="1">
-        <v>0.05650000010257986</v>
+        <v>0.05650000041031945</v>
       </c>
       <c r="O2" s="1">
         <v>-65.73457829740765</v>
       </c>
       <c r="P2" s="1">
-        <v>4.572384751034898E-06</v>
+        <v>9.144769502069797E-06</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.1060000000986165</v>
+        <v>0.1060000003944661</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3537,28 +3537,28 @@
         <v>28.50318153078201</v>
       </c>
       <c r="J3" s="1">
-        <v>0.7643417358801755</v>
+        <v>1.528683471760351</v>
       </c>
       <c r="K3" s="1">
-        <v>0.7720746655656563</v>
+        <v>1.532564568569063</v>
       </c>
       <c r="L3" s="1">
         <v>-44.84219068932112</v>
       </c>
       <c r="M3" s="1">
-        <v>4.370605758075981E-06</v>
+        <v>8.741211516151961E-06</v>
       </c>
       <c r="N3" s="1">
-        <v>0.05650000016904597</v>
+        <v>0.05650000067618388</v>
       </c>
       <c r="O3" s="1">
         <v>-65.7387058348819</v>
       </c>
       <c r="P3" s="1">
-        <v>2.551408544371774E-06</v>
+        <v>5.102817088743548E-06</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.1060000000307061</v>
+        <v>0.1060000001228242</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3590,28 +3590,28 @@
         <v>26.81985524126454</v>
       </c>
       <c r="J4" s="1">
-        <v>0.5308896994134625</v>
+        <v>1.061779398826925</v>
       </c>
       <c r="K4" s="1">
-        <v>0.5419639037272839</v>
+        <v>1.067359588785928</v>
       </c>
       <c r="L4" s="1">
         <v>-44.84219551468387</v>
       </c>
       <c r="M4" s="1">
-        <v>4.492612727319232E-06</v>
+        <v>8.985225454638463E-06</v>
       </c>
       <c r="N4" s="1">
-        <v>0.05650000017861566</v>
+        <v>0.05650000071446262</v>
       </c>
       <c r="O4" s="1">
         <v>-65.73858436959064</v>
       </c>
       <c r="P4" s="1">
-        <v>3.040383770831585E-06</v>
+        <v>6.08076754166317E-06</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.1060000000436035</v>
+        <v>0.1060000001744138</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3643,28 +3643,28 @@
         <v>54.83895807365423</v>
       </c>
       <c r="J5" s="1">
-        <v>1.906530316609702</v>
+        <v>3.813060633219404</v>
       </c>
       <c r="K5" s="1">
-        <v>1.909643644283375</v>
+        <v>3.814618249918013</v>
       </c>
       <c r="L5" s="1">
         <v>-44.79672593290534</v>
       </c>
       <c r="M5" s="1">
-        <v>3.865629082425139E-06</v>
+        <v>7.731258164850277E-06</v>
       </c>
       <c r="N5" s="1">
-        <v>0.05650000013223972</v>
+        <v>0.05650000052895887</v>
       </c>
       <c r="O5" s="1">
         <v>-65.72142251953835</v>
       </c>
       <c r="P5" s="1">
-        <v>3.76139542441752E-06</v>
+        <v>7.52279084883504E-06</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.1060000000667363</v>
+        <v>0.1060000002669452</v>
       </c>
     </row>
   </sheetData>
